--- a/Куделин/Модели Excel/Gompertz_check.xlsx
+++ b/Куделин/Модели Excel/Gompertz_check.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Docs\KTH\!Work2\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Куделин\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generation" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="0.0000000_ ;\-0.0000000\ "/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -464,7 +464,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -600,7 +599,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -706,7 +705,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -721,11 +720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948287200"/>
-        <c:axId val="948275552"/>
+        <c:axId val="1574151408"/>
+        <c:axId val="1574151952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948287200"/>
+        <c:axId val="1574151408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +766,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275552"/>
+        <c:crossAx val="1574151952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,7 +774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275552"/>
+        <c:axId val="1574151952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +825,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948287200"/>
+        <c:crossAx val="1574151408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -840,7 +839,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -908,7 +906,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1058,7 +1056,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A3DB-4A77-A790-0023F49F64BB}"/>
             </c:ext>
@@ -1164,7 +1162,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A3DB-4A77-A790-0023F49F64BB}"/>
             </c:ext>
@@ -1179,11 +1177,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="607888176"/>
-        <c:axId val="607888592"/>
+        <c:axId val="554568896"/>
+        <c:axId val="554571616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="607888176"/>
+        <c:axId val="554568896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +1223,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607888592"/>
+        <c:crossAx val="554571616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +1231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="607888592"/>
+        <c:axId val="554571616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1282,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607888176"/>
+        <c:crossAx val="554568896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,7 +1364,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1380,7 +1378,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1516,7 +1513,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BDEE-48D1-BFC3-F95B8B2B1654}"/>
             </c:ext>
@@ -1622,7 +1619,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDEE-48D1-BFC3-F95B8B2B1654}"/>
             </c:ext>
@@ -1637,11 +1634,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1115232736"/>
-        <c:axId val="1115238144"/>
+        <c:axId val="554553120"/>
+        <c:axId val="554572160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1115232736"/>
+        <c:axId val="554553120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,7 +1680,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115238144"/>
+        <c:crossAx val="554572160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1691,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1115238144"/>
+        <c:axId val="554572160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1739,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115232736"/>
+        <c:crossAx val="554553120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1756,7 +1753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1824,7 +1820,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1964,7 +1960,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D4DA-4AAD-B1D6-232C543994AB}"/>
             </c:ext>
@@ -2061,7 +2057,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D4DA-4AAD-B1D6-232C543994AB}"/>
             </c:ext>
@@ -2076,11 +2072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1115236064"/>
-        <c:axId val="1115236896"/>
+        <c:axId val="554549312"/>
+        <c:axId val="554569440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1115236064"/>
+        <c:axId val="554549312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2118,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115236896"/>
+        <c:crossAx val="554569440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2130,7 +2126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1115236896"/>
+        <c:axId val="554569440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2177,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115236064"/>
+        <c:crossAx val="554549312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2262,7 +2258,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2411,7 +2407,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2A2A-48E1-A3E4-245506E72FFB}"/>
             </c:ext>
@@ -2517,7 +2513,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2A2A-48E1-A3E4-245506E72FFB}"/>
             </c:ext>
@@ -2532,11 +2528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1115239808"/>
-        <c:axId val="1115233152"/>
+        <c:axId val="554549856"/>
+        <c:axId val="554561280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1115239808"/>
+        <c:axId val="554549856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +2574,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115233152"/>
+        <c:crossAx val="554561280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2586,7 +2582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1115233152"/>
+        <c:axId val="554561280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2633,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115239808"/>
+        <c:crossAx val="554549856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2718,7 +2714,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2867,7 +2863,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F8A8-4CC1-975D-FB2020BEF69C}"/>
             </c:ext>
@@ -2973,7 +2969,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F8A8-4CC1-975D-FB2020BEF69C}"/>
             </c:ext>
@@ -2988,11 +2984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605734480"/>
-        <c:axId val="605735312"/>
+        <c:axId val="554550944"/>
+        <c:axId val="554563456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605734480"/>
+        <c:axId val="554550944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,7 +3030,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605735312"/>
+        <c:crossAx val="554563456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3042,7 +3038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605735312"/>
+        <c:axId val="554563456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3093,7 +3089,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605734480"/>
+        <c:crossAx val="554550944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3174,7 +3170,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3323,7 +3319,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B6D0-4F2F-A79D-FCD6F4927C20}"/>
             </c:ext>
@@ -3429,7 +3425,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B6D0-4F2F-A79D-FCD6F4927C20}"/>
             </c:ext>
@@ -3444,11 +3440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1128464128"/>
-        <c:axId val="1128462464"/>
+        <c:axId val="554564000"/>
+        <c:axId val="554555296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1128464128"/>
+        <c:axId val="554564000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3490,7 +3486,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128462464"/>
+        <c:crossAx val="554555296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3498,7 +3494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1128462464"/>
+        <c:axId val="554555296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,7 +3545,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128464128"/>
+        <c:crossAx val="554564000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3630,7 +3626,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3644,7 +3640,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3780,7 +3775,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA58-4EAB-95FE-59424C3D6FE9}"/>
             </c:ext>
@@ -3886,7 +3881,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA58-4EAB-95FE-59424C3D6FE9}"/>
             </c:ext>
@@ -3901,11 +3896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1842337984"/>
-        <c:axId val="1842334240"/>
+        <c:axId val="554562912"/>
+        <c:axId val="554545504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1842337984"/>
+        <c:axId val="554562912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,7 +3942,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1842334240"/>
+        <c:crossAx val="554545504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3955,7 +3950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1842334240"/>
+        <c:axId val="554545504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4001,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1842337984"/>
+        <c:crossAx val="554562912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4020,7 +4015,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4053,7 +4047,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -4095,7 +4089,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4245,7 +4239,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0DD4-44AC-BC57-8B7364DDB09B}"/>
             </c:ext>
@@ -4351,7 +4345,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0DD4-44AC-BC57-8B7364DDB09B}"/>
             </c:ext>
@@ -4366,11 +4360,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="698457216"/>
-        <c:axId val="698462208"/>
+        <c:axId val="554569984"/>
+        <c:axId val="554541152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="698457216"/>
+        <c:axId val="554569984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,7 +4406,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698462208"/>
+        <c:crossAx val="554541152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4420,7 +4414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="698462208"/>
+        <c:axId val="554541152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,7 +4465,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698457216"/>
+        <c:crossAx val="554569984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4553,7 +4547,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4703,7 +4697,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C105-439A-8626-197142E92705}"/>
             </c:ext>
@@ -4809,7 +4803,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C105-439A-8626-197142E92705}"/>
             </c:ext>
@@ -4824,11 +4818,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="694977808"/>
-        <c:axId val="694977392"/>
+        <c:axId val="554553664"/>
+        <c:axId val="554564544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="694977808"/>
+        <c:axId val="554553664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,7 +4864,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694977392"/>
+        <c:crossAx val="554564544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4878,7 +4872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="694977392"/>
+        <c:axId val="554564544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4929,7 +4923,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694977808"/>
+        <c:crossAx val="554553664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5011,7 +5005,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5025,7 +5019,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5161,7 +5154,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BBB8-441E-8292-278FFAD36B42}"/>
             </c:ext>
@@ -5267,7 +5260,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BBB8-441E-8292-278FFAD36B42}"/>
             </c:ext>
@@ -5282,11 +5275,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="552471504"/>
-        <c:axId val="616407568"/>
+        <c:axId val="554555840"/>
+        <c:axId val="554571072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="552471504"/>
+        <c:axId val="554555840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5328,7 +5321,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616407568"/>
+        <c:crossAx val="554571072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5336,7 +5329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616407568"/>
+        <c:axId val="554571072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,7 +5380,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552471504"/>
+        <c:crossAx val="554555840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5401,7 +5394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5469,7 +5461,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5483,7 +5475,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5619,7 +5610,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -5725,7 +5716,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -5740,11 +5731,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986004560"/>
-        <c:axId val="986006640"/>
+        <c:axId val="1574152496"/>
+        <c:axId val="1574153040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986004560"/>
+        <c:axId val="1574152496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,7 +5777,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986006640"/>
+        <c:crossAx val="1574153040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5794,7 +5785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986006640"/>
+        <c:axId val="1574153040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,7 +5836,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004560"/>
+        <c:crossAx val="1574152496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5859,7 +5850,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5927,7 +5917,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5941,7 +5931,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6077,7 +6066,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FA0-4220-B006-71D4F42BD0CA}"/>
             </c:ext>
@@ -6183,7 +6172,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6FA0-4220-B006-71D4F42BD0CA}"/>
             </c:ext>
@@ -6198,11 +6187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="811154032"/>
-        <c:axId val="811154864"/>
+        <c:axId val="554572704"/>
+        <c:axId val="554565088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811154032"/>
+        <c:axId val="554572704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6244,7 +6233,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811154864"/>
+        <c:crossAx val="554565088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6252,7 +6241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811154864"/>
+        <c:axId val="554565088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6303,7 +6292,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811154032"/>
+        <c:crossAx val="554572704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6317,7 +6306,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6385,7 +6373,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6399,7 +6387,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6535,7 +6522,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-57CC-4957-B8C1-2E20640A88BE}"/>
             </c:ext>
@@ -6641,7 +6628,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-57CC-4957-B8C1-2E20640A88BE}"/>
             </c:ext>
@@ -6656,11 +6643,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="611191280"/>
-        <c:axId val="611190448"/>
+        <c:axId val="554551488"/>
+        <c:axId val="554561824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="611191280"/>
+        <c:axId val="554551488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,7 +6689,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611190448"/>
+        <c:crossAx val="554561824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6710,7 +6697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="611190448"/>
+        <c:axId val="554561824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6761,7 +6748,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611191280"/>
+        <c:crossAx val="554551488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6775,7 +6762,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6843,7 +6829,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6857,7 +6843,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6993,7 +6978,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D5B-4A26-83D9-C25F1D3DD000}"/>
             </c:ext>
@@ -7099,7 +7084,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D5B-4A26-83D9-C25F1D3DD000}"/>
             </c:ext>
@@ -7114,11 +7099,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="697966928"/>
-        <c:axId val="697967760"/>
+        <c:axId val="554547680"/>
+        <c:axId val="554541696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="697966928"/>
+        <c:axId val="554547680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7160,7 +7145,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697967760"/>
+        <c:crossAx val="554541696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7168,7 +7153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="697967760"/>
+        <c:axId val="554541696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7219,7 +7204,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697966928"/>
+        <c:crossAx val="554547680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7233,7 +7218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7301,7 +7285,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7451,7 +7435,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D256-42C0-9255-6527F2EAA912}"/>
             </c:ext>
@@ -7557,7 +7541,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D256-42C0-9255-6527F2EAA912}"/>
             </c:ext>
@@ -7572,11 +7556,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="809678224"/>
-        <c:axId val="809677392"/>
+        <c:axId val="554542240"/>
+        <c:axId val="554548224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="809678224"/>
+        <c:axId val="554542240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7618,7 +7602,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809677392"/>
+        <c:crossAx val="554548224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7626,7 +7610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="809677392"/>
+        <c:axId val="554548224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7677,7 +7661,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809678224"/>
+        <c:crossAx val="554542240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7759,7 +7743,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7909,7 +7893,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3340-4FAE-A92D-D2D79E3CB16F}"/>
             </c:ext>
@@ -8015,7 +7999,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3340-4FAE-A92D-D2D79E3CB16F}"/>
             </c:ext>
@@ -8030,11 +8014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="558713072"/>
-        <c:axId val="558712656"/>
+        <c:axId val="554546048"/>
+        <c:axId val="554542784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="558713072"/>
+        <c:axId val="554546048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8076,7 +8060,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558712656"/>
+        <c:crossAx val="554542784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8084,7 +8068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558712656"/>
+        <c:axId val="554542784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8135,7 +8119,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558713072"/>
+        <c:crossAx val="554546048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8217,7 +8201,7 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8361,7 +8345,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-931D-4FCD-8304-EE1DF996B566}"/>
             </c:ext>
@@ -8375,11 +8359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212062992"/>
-        <c:axId val="212067568"/>
+        <c:axId val="554547136"/>
+        <c:axId val="554546592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212062992"/>
+        <c:axId val="554547136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8436,12 +8420,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212067568"/>
+        <c:crossAx val="554546592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212067568"/>
+        <c:axId val="554546592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8498,7 +8482,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212062992"/>
+        <c:crossAx val="554547136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8513,7 +8497,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -8555,7 +8539,7 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8569,7 +8553,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8699,7 +8682,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF16-482F-8110-4AEE4ACD3EA7}"/>
             </c:ext>
@@ -8713,11 +8696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094004928"/>
-        <c:axId val="2093962912"/>
+        <c:axId val="554548768"/>
+        <c:axId val="554556384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094004928"/>
+        <c:axId val="554548768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8774,12 +8757,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093962912"/>
+        <c:crossAx val="554556384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2093962912"/>
+        <c:axId val="554556384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8836,7 +8819,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094004928"/>
+        <c:crossAx val="554548768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8851,7 +8834,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -8893,7 +8876,7 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8907,7 +8890,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9037,7 +9019,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0C5E-43C7-8F27-C5E8D62C751A}"/>
             </c:ext>
@@ -9051,11 +9033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1850517264"/>
-        <c:axId val="1850511024"/>
+        <c:axId val="554543328"/>
+        <c:axId val="554552032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1850517264"/>
+        <c:axId val="554543328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9112,12 +9094,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850511024"/>
+        <c:crossAx val="554552032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1850511024"/>
+        <c:axId val="554552032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9174,7 +9156,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850517264"/>
+        <c:crossAx val="554543328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9189,7 +9171,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -9231,7 +9213,7 @@
 </file>
 
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9381,7 +9363,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF61-4470-A703-905615C989F7}"/>
             </c:ext>
@@ -9395,11 +9377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1568148783"/>
-        <c:axId val="1568129231"/>
+        <c:axId val="554562368"/>
+        <c:axId val="554552576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1568148783"/>
+        <c:axId val="554562368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9456,12 +9438,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1568129231"/>
+        <c:crossAx val="554552576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1568129231"/>
+        <c:axId val="554552576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9518,7 +9500,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1568148783"/>
+        <c:crossAx val="554562368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9533,7 +9515,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -9575,7 +9557,1495 @@
 </file>
 
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Var_M Gen_const_Costs_const'!$J$175:$R$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Var_M Gen_const_Costs_const'!$J$176:$R$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.98511415728996565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97066499091112579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94300201813821449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91687208879486104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89215120021063843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86872837214104404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81522069808976505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76792200100094343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62327385248726563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDCC-451D-B086-461895D8EEA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="554554208"/>
+        <c:axId val="554543872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="554554208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554543872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="554543872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554554208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$120:$AH$120</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000_ ;\-0.0000000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.17549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.41558</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.44358400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.53559899999999994</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.76828050505050505</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.78038211111111122</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.85256560606060605</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.0162233636393438</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.3117781313131314</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.5892309393954298</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.2845824343391428</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.3865039393796339</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.5156302404970825</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>3.5934473025557492</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>5.0600728342123169</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>8.9106862826232405</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>11.176370672793865</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>12.457774095742918</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>14.770723351762967</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>18.857729132981873</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>21.789843068502105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C53-4ADA-B685-010F75CD9B50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$124:$AH$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.3613203409820591E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7991580596664752E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4744692827289954E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5025360663874211E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0478812366306726E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3422974943193622E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10708287348681654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15589124802312782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22586896372794546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32510009610792301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46431761131662141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65761621768878231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92330911863707854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2849449330403224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7724998614512597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.423758177642533</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2858912543059642</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4172415617411991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8893134211268183</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7889668049656029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.220804257417718</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.309734202107357</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.203686701722766</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.076450355104221</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.130591713786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C53-4ADA-B685-010F75CD9B50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1574153584"/>
+        <c:axId val="1574154128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1574153584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574154128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1574154128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000_ ;\-0.0000000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574153584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Var_M Gen_const_Costs_const'!$J$129:$R$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Var_M Gen_const_Costs_const'!$J$130:$R$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.48594324520485138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3209544448487992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19115291057120648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13610773707875945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10567665541677691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6366713416051039E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9284546077732765E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.513232186205611E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3087149256590951E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E3A-4029-9E6B-F5FE155E5A70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="554544960"/>
+        <c:axId val="554556928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="554544960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554556928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="554556928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554544960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Var_M Gen_const_Costs_const'!$J$152:$R$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Var_M Gen_const_Costs_const'!$J$153:$R$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.30395661815225372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17921511997005035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8427399049525549E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7844174581248445E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1761052404903175E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1841999105608804E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8289225317212938E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1368040314671963E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0799401177200348E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1DD-4CC4-9B6C-E8232F11D1AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="554557472"/>
+        <c:axId val="554558016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="554557472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554558016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="554558016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554557472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9725,9 +11195,9 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CDCC-451D-B086-461895D8EEA9}"/>
+              <c16:uniqueId val="{00000000-D526-4540-A46F-B98013D7F8E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9739,11 +11209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1306828575"/>
-        <c:axId val="1306827743"/>
+        <c:axId val="554565632"/>
+        <c:axId val="554558560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1306828575"/>
+        <c:axId val="554565632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9800,12 +11270,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306827743"/>
+        <c:crossAx val="554558560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1306827743"/>
+        <c:axId val="554558560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9862,7 +11332,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306828575"/>
+        <c:crossAx val="554565632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9877,1497 +11347,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$120:$AH$120</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000000_ ;\-0.0000000\ </c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>7.0999999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2000000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.17549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.41558</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.44358400000000003</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.53559899999999994</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.76828050505050505</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.78038211111111122</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.85256560606060605</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.0162233636393438</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.3117781313131314</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.5892309393954298</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.2845824343391428</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.3865039393796339</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.5156302404970825</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>3.5934473025557492</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>5.0600728342123169</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>8.9106862826232405</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>11.176370672793865</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>12.457774095742918</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>14.770723351762967</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>18.857729132981873</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>21.789843068502105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C53-4ADA-B685-010F75CD9B50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$124:$AH$124</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.3613203409820591E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7991580596664752E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4744692827289954E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5025360663874211E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0478812366306726E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3422974943193622E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10708287348681654</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15589124802312782</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22586896372794546</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.32510009610792301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.46431761131662141</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65761621768878231</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92330911863707854</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2849449330403224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7724998614512597</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.423758177642533</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2858912543059642</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4172415617411991</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.8893134211268183</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.7889668049656029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.220804257417718</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.309734202107357</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.203686701722766</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.076450355104221</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.130591713786</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6C53-4ADA-B685-010F75CD9B50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="875861504"/>
-        <c:axId val="875870240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="875861504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="875870240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="875870240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000_ ;\-0.0000000\ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="875861504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Var_M Gen_const_Costs_const'!$J$129:$R$129</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Var_M Gen_const_Costs_const'!$J$130:$R$130</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.48594324520485138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3209544448487992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19115291057120648</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13610773707875945</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10567665541677691</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.6366713416051039E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9284546077732765E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.513232186205611E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3087149256590951E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E3A-4029-9E6B-F5FE155E5A70}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1420963951"/>
-        <c:axId val="1420968527"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1420963951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1420968527"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1420968527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1420963951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Var_M Gen_const_Costs_const'!$J$152:$R$152</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Var_M Gen_const_Costs_const'!$J$153:$R$153</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.30395661815225372</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17921511997005035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8427399049525549E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7844174581248445E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1761052404903175E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1841999105608804E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8289225317212938E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1368040314671963E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0799401177200348E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1DD-4CC4-9B6C-E8232F11D1AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1731692879"/>
-        <c:axId val="1731692463"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1731692879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1731692463"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1731692463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1731692879"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Var_M Gen_const_Costs_const'!$J$175:$R$175</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Var_M Gen_const_Costs_const'!$J$176:$R$176</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.98511415728996565</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97066499091112579</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94300201813821449</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91687208879486104</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89215120021063843</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86872837214104404</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81522069808976505</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.76792200100094343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.62327385248726563</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D526-4540-A46F-B98013D7F8E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1513875823"/>
-        <c:axId val="1513876655"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1513875823"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1513876655"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1513876655"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1513875823"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -11409,7 +11389,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11566,7 +11546,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -11672,7 +11652,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -11687,11 +11667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948278464"/>
-        <c:axId val="948276800"/>
+        <c:axId val="1574155216"/>
+        <c:axId val="1574156848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948278464"/>
+        <c:axId val="1574155216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11733,7 +11713,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948276800"/>
+        <c:crossAx val="1574156848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11741,7 +11721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948276800"/>
+        <c:axId val="1574156848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11792,7 +11772,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948278464"/>
+        <c:crossAx val="1574155216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11874,7 +11854,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12024,7 +12004,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -12130,7 +12110,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -12145,11 +12125,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948283456"/>
-        <c:axId val="948297600"/>
+        <c:axId val="1574155760"/>
+        <c:axId val="1572798448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948283456"/>
+        <c:axId val="1574155760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12191,7 +12171,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948297600"/>
+        <c:crossAx val="1572798448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12199,7 +12179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948297600"/>
+        <c:axId val="1572798448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12250,7 +12230,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948283456"/>
+        <c:crossAx val="1574155760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12332,7 +12312,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12346,7 +12326,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12482,7 +12461,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -12588,7 +12567,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -12603,11 +12582,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="985997904"/>
-        <c:axId val="986004976"/>
+        <c:axId val="1519498256"/>
+        <c:axId val="554570528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="985997904"/>
+        <c:axId val="1519498256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12649,7 +12628,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004976"/>
+        <c:crossAx val="554570528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12657,7 +12636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986004976"/>
+        <c:axId val="554570528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12708,7 +12687,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985997904"/>
+        <c:crossAx val="1519498256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12722,7 +12701,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12790,7 +12768,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12830,7 +12808,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12966,7 +12943,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -13072,7 +13049,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -13087,11 +13064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948308000"/>
-        <c:axId val="948317984"/>
+        <c:axId val="554544416"/>
+        <c:axId val="554560736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948308000"/>
+        <c:axId val="554544416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13133,7 +13110,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948317984"/>
+        <c:crossAx val="554560736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13141,7 +13118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948317984"/>
+        <c:axId val="554560736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13192,7 +13169,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948308000"/>
+        <c:crossAx val="554544416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13206,7 +13183,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13274,7 +13250,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13424,7 +13400,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E763-4D91-92BA-39A71A765C23}"/>
             </c:ext>
@@ -13530,7 +13506,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E763-4D91-92BA-39A71A765C23}"/>
             </c:ext>
@@ -13545,11 +13521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="657888208"/>
-        <c:axId val="657884048"/>
+        <c:axId val="554550400"/>
+        <c:axId val="554567264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="657888208"/>
+        <c:axId val="554550400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13591,7 +13567,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657884048"/>
+        <c:crossAx val="554567264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13599,7 +13575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="657884048"/>
+        <c:axId val="554567264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13650,7 +13626,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657888208"/>
+        <c:crossAx val="554550400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13732,7 +13708,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13882,7 +13858,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6BCE-4271-8185-32F063B79748}"/>
             </c:ext>
@@ -13988,7 +13964,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6BCE-4271-8185-32F063B79748}"/>
             </c:ext>
@@ -14003,11 +13979,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="816916000"/>
-        <c:axId val="816913920"/>
+        <c:axId val="554554752"/>
+        <c:axId val="554573248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="816916000"/>
+        <c:axId val="554554752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14049,7 +14025,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="816913920"/>
+        <c:crossAx val="554573248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14057,7 +14033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="816913920"/>
+        <c:axId val="554573248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14108,7 +14084,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="816916000"/>
+        <c:crossAx val="554554752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32001,7 +31977,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32037,7 +32013,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32073,7 +32049,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32109,7 +32085,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32145,7 +32121,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32181,7 +32157,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32217,7 +32193,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32253,7 +32229,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32294,7 +32270,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32330,7 +32306,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32366,7 +32342,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32402,7 +32378,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32438,7 +32414,7 @@
         <xdr:cNvPr id="30" name="Диаграмма 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32474,7 +32450,7 @@
         <xdr:cNvPr id="33" name="Диаграмма 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32510,7 +32486,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32546,7 +32522,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13611BBC-253D-4242-87FF-B780BA7C0BC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13611BBC-253D-4242-87FF-B780BA7C0BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32587,7 +32563,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32625,7 +32601,7 @@
         <xdr:cNvPr id="20" name="Диаграмма 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32661,7 +32637,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32699,7 +32675,7 @@
         <xdr:cNvPr id="23" name="Диаграмма 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32735,7 +32711,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32773,7 +32749,7 @@
         <xdr:cNvPr id="27" name="Диаграмма 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32811,7 +32787,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32849,7 +32825,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32887,7 +32863,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AC3BA4-A91D-4E41-84CB-022C4AE900F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AC3BA4-A91D-4E41-84CB-022C4AE900F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32923,7 +32899,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEC25B3-0C73-44B7-A921-3B46DF76C838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEC25B3-0C73-44B7-A921-3B46DF76C838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32959,7 +32935,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFEF338-0CB4-4AE8-B416-6085DB68C862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CFEF338-0CB4-4AE8-B416-6085DB68C862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32995,7 +32971,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0143D462-F02A-4831-8371-0DFA57E4FC61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0143D462-F02A-4831-8371-0DFA57E4FC61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33031,7 +33007,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A504BD-1E91-4389-916C-2A929B52B8D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19A504BD-1E91-4389-916C-2A929B52B8D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33067,7 +33043,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A4D3D7-F7EE-454D-99CB-6B47BB208109}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0A4D3D7-F7EE-454D-99CB-6B47BB208109}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33103,7 +33079,7 @@
         <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7E8457-467F-4C88-A147-9295089A18B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E7E8457-467F-4C88-A147-9295089A18B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33139,7 +33115,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368E6F99-BFF9-4AD3-AE63-C2CC9383375B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{368E6F99-BFF9-4AD3-AE63-C2CC9383375B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33426,9 +33402,9 @@
   <dimension ref="A1:BL173"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AK1" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34044,7 +34020,7 @@
         <v>13.979614678784582</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f>$I3+($C5)*(EXP(-EXP($A5-$B5*M4)))</f>
         <v>17.706928348672136</v>
       </c>
       <c r="N7">
@@ -38511,8 +38487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL173"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43481,8 +43457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
